--- a/Uncert.xlsx
+++ b/Uncert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\Documents\GitHub\3330-HVAC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224DBC2-E3DC-4F6E-9698-ABF9EB244708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D322BE2-9C04-4690-BA5F-BA8F430A5E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3315" windowWidth="14400" windowHeight="8685" xr2:uid="{13314DCA-5ECC-46DA-A5B5-3476DFB5C3AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{13314DCA-5ECC-46DA-A5B5-3476DFB5C3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>test</t>
+    <t>B Uncertainty</t>
+  </si>
+  <si>
+    <t>Isen. Compressor N Uncertainty</t>
+  </si>
+  <si>
+    <t>Power Compressor N Uncertainty</t>
+  </si>
+  <si>
+    <t>Condenser N Uncertainty</t>
+  </si>
+  <si>
+    <t>Evaporator N Uncertainty</t>
   </si>
 </sst>
 </file>
@@ -385,15 +397,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5906B530-9FC5-4752-87DB-722F3338EC64}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.7876243213320204E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.46516630229064904</v>
+      </c>
+      <c r="C2">
+        <v>2.2101887454571933</v>
+      </c>
+      <c r="D2">
+        <v>0.77121775815136184</v>
+      </c>
+      <c r="E2">
+        <v>0.75590733515919706</v>
       </c>
     </row>
   </sheetData>

--- a/Uncert.xlsx
+++ b/Uncert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keato\Documents\GitHub\3330-HVAC-Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\GitHub\3330-HVAC-Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224DBC2-E3DC-4F6E-9698-ABF9EB244708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD3E49-CA2D-4B8D-9F9C-EEA72D0B05D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3315" windowWidth="14400" windowHeight="8685" xr2:uid="{13314DCA-5ECC-46DA-A5B5-3476DFB5C3AC}"/>
+    <workbookView xWindow="5760" yWindow="1680" windowWidth="17280" windowHeight="8964" xr2:uid="{13314DCA-5ECC-46DA-A5B5-3476DFB5C3AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,9 +389,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
